--- a/tpa_request.xlsx
+++ b/tpa_request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amnaik/Documents/pprojects/tour_planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF61AC-C57A-D144-B74F-34BD95BEF054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F7318E-AA6C-8846-87FB-5237B62BB6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="460" windowWidth="24420" windowHeight="16140" xr2:uid="{9BC70F64-9DF0-284F-931F-161DBC6F56AB}"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="24420" windowHeight="16000" xr2:uid="{9BC70F64-9DF0-284F-931F-161DBC6F56AB}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>job_type</t>
   </si>
@@ -87,34 +87,34 @@
     <t>vehicle1</t>
   </si>
   <si>
-    <t>2019-12-16T10:00:00.00Z</t>
-  </si>
-  <si>
     <t>vehicle_profile</t>
   </si>
   <si>
     <t>vehicle_id</t>
   </si>
   <si>
-    <t>101158a1</t>
-  </si>
-  <si>
     <t>16T</t>
   </si>
   <si>
-    <t>101460a</t>
-  </si>
-  <si>
-    <t>93a</t>
-  </si>
-  <si>
-    <t>101219a</t>
-  </si>
-  <si>
-    <t>101003a</t>
-  </si>
-  <si>
     <t>scania</t>
+  </si>
+  <si>
+    <t>pickup</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>5e</t>
   </si>
 </sst>
 </file>
@@ -153,10 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +475,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,22 +519,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>47.220399999999998</v>
+        <v>52.523532614033599</v>
       </c>
       <c r="F2">
-        <v>-1.5317799999999999</v>
+        <v>13.414531946182199</v>
       </c>
       <c r="G2">
         <v>1500</v>
@@ -542,29 +543,27 @@
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <f>C2</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D3" s="2">
-        <f>D2</f>
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E3">
-        <v>47.213290000000001</v>
+        <v>52.484635799016701</v>
       </c>
       <c r="F3">
-        <v>-1.5548900000000001</v>
+        <v>13.546636104583699</v>
       </c>
       <c r="G3">
         <v>540</v>
@@ -573,29 +572,27 @@
         <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C6" si="0">C3</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D6" si="1">D3</f>
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E4">
-        <v>47.213549999999998</v>
+        <v>52.477345750503297</v>
       </c>
       <c r="F4">
-        <v>-1.5439400000000001</v>
+        <v>13.531569771916599</v>
       </c>
       <c r="G4">
         <v>780</v>
@@ -604,29 +601,27 @@
         <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
-        <v>47.216419999999999</v>
+        <v>52.4694687370202</v>
       </c>
       <c r="F5">
-        <v>-1.5517099999999999</v>
+        <v>13.537913560867301</v>
       </c>
       <c r="G5">
         <v>1500</v>
@@ -635,29 +630,27 @@
         <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E6">
-        <v>47.222929999999998</v>
+        <v>52.430288580282003</v>
       </c>
       <c r="F6">
-        <v>-1.5628</v>
+        <v>13.4899771213531</v>
       </c>
       <c r="G6">
         <v>1260</v>
@@ -666,7 +659,7 @@
         <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +672,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -724,25 +717,25 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>47.325412</v>
+        <v>52.427701280609703</v>
       </c>
       <c r="D2">
-        <v>-2.4087139999999998</v>
+        <v>13.4915488958358</v>
       </c>
       <c r="E2">
-        <v>47.325412</v>
+        <v>52.427701280609703</v>
       </c>
       <c r="F2">
-        <v>-2.4087139999999998</v>
+        <v>13.4915488958358</v>
       </c>
       <c r="G2">
         <v>1800</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
+      <c r="H2" s="3">
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>
